--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,9 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transfer foils/film : Garment
-Transfer foils/film : Leathergoods
-Transfer foils/film : Footwear
+          <t xml:space="preserve">Transfer foils/film : Garment 
+Transfer foils/film : Leathergoods 
+Transfer foils/film : Footwear 
 </t>
         </is>
       </c>
@@ -474,16 +474,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rings : Footwear
-Rings : Leathergoods Bags
-Rings : Technical articles
-Buttons : Garment
-Buttons : Leathergoods Bags
-Chains : Leathergoods Bags
-Chains : Footwear
-Chains : Garment
-Nail covers : Footwear
-Nail covers : Leathergoods
+          <t xml:space="preserve">Rings : Footwear 
+Rings : Leathergoods Bags 
+Rings : Technical articles 
+Buttons : Garment 
+Buttons : Leathergoods Bags 
+Chains : Leathergoods Bags 
+Chains : Footwear 
+Chains : Garment 
+Nail covers : Footwear 
+Nail covers : Leathergoods 
 </t>
         </is>
       </c>
@@ -511,7 +511,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embroideries/Decorations : Garment
+          <t xml:space="preserve">Embroideries/Decorations : Garment 
 </t>
         </is>
       </c>
@@ -539,11 +539,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sheets Other materials : Technical articles
-Soles : Footwear Sole
-Upper Synthetic materials : Footwear
-Upper Other : Technical articles
-Bags : Technical articles
+          <t xml:space="preserve">Sheets Other materials : Technical articles 
+Soles : Footwear Sole 
+Upper Synthetic materials : Footwear 
+Upper Other : Technical articles 
+Bags : Technical articles 
 </t>
         </is>
       </c>
@@ -571,10 +571,10 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calves : Mixed
-Calves : Mixed
-Lambs : Mixed
-Lambs : Mixed
+          <t xml:space="preserve">Calves : Mixed 
+Calves : Mixed 
+Lambs : Mixed 
+Lambs : Mixed 
 </t>
         </is>
       </c>
@@ -602,7 +602,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toe puffs Support for shoes : Footwear Upper
+          <t xml:space="preserve">Toe puffs Support for shoes : Footwear Upper 
 </t>
         </is>
       </c>
@@ -630,12 +630,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calf sides : Chrome
-Calf sides : Vegetable
-Calf sides : White
-Horses : Vegetable
-Goats / kids : Chrome
-Goats / kids : Chrome
+          <t xml:space="preserve">Calf sides : Chrome 
+Calf sides : Vegetable 
+Calf sides : White 
+Horses : Vegetable 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
 </t>
         </is>
       </c>
@@ -686,7 +686,6022 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Buckles : Women's shoes
+          <t xml:space="preserve">Buckles : Women's shoes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ACCESSORI METALLICI 4 X 4 SRL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZONA INDUSTRIALE - LOTTI 27-29 - MATINO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>www.accessori4x4.it</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Metal accessories for footwear, leather goods, belts and garments</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buckles : Footwear 
+Buckles : Garment 
+Buckles : Leathergoods Belts 
+Buckles : Leathergoods Bags 
+Buckles : Safety footwear 
+Buckles : Women's shoes 
+Trinkets Metallic : Garment 
+Trinkets Metallic : Leathergoods Belts 
+Trinkets Metallic : Leathergoods Bags 
+Trinkets Metallic : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ACCESSORI VAL VIBRATA SRL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VIA LEONARDO DA VINCI, 8 - CORROPOLI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>www.accessorivalvibrata.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Manufacturer of fashion accessories for clothing, leather goods and footwear</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rings : Leathergoods Bags 
+Chains : Leathergoods Bags 
+Zip fasteners : Leathergoods Bags 
+Buckles : Leathergoods Bags 
+Handles : Leathergoods Bags 
+Trinkets Metallic : Leathergoods Bags 
+Eyelets : Leathergoods Bags 
+Rivets : Leathergoods Bags 
+Connections : Leathergoods Bags 
+Small snap hooks : Leathergoods Bags 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ACCOPPIATURA DI ASOLO SPA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VIA DELL'ARTIGIANATO, 14 - ASOLO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>www.asoltex.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Laminated fabrics and adhesive foams for footwear, leather goods, furniture and garments; thermoformed insoles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Sport footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ACCOPPIATURA VIGEVANESE SRL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VIA R. SANZIO, 136 - MORTARA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>www.accoppiaturavigevanese.it</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Combined synthetics and fabrics, adhesive and thermoadhesive productions</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Technical articles 
+Combined fabrics : Garment 
+Combined fabrics : Safety footwear 
+Combined fabrics : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A. &amp; C. GARGIULO SRLS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CORSO NICOLANGELO PROTOPISANI, 132 - NAPOLI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Aniline nappa and suede for garments, gloves and footwear. Prints for clothing and bags, strech nappa and stretch suede.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lambs : Chrome 
+Lambs : Chrome 
+Crossbreeds : Chrome 
+Crossbreeds : Chrome 
+Crossbreeds : Chrome 
+Crossbreeds : Chrome 
+Crossbreeds : Chrome 
+Crossbreeds : White 
+Crossbreeds : White 
+Crossbreeds : Metal free 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A.C.R.A. SRL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VIA RIO TORTO, 23 - VALMADRERA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>www.acrasrl.it</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Chains and metal trimmings manufacturing for trinkets, leather goods, garments and shoes. Realization of products on customer's demand. Clasps and rings</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chains : Garment 
+Chains : Leathergoods 
+Chains : Footwear 
+Trinkets : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ADETEX, SL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PTDA. DEL BOCH, 69 - CREVILLENTE (ALICANTE)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>www.adetex.es</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Components, latex foam, PU foam, PU Memory Foam. Recycled and ecological products, CO2 Pure Innovation. Manufacturers of technical foams specially designed for improving the confort of the shoes.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insoles Other : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ADNAN DERI SAN VE TIC AS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IDOSB 3.YOL DOLAP CAD.NO:17 - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>www.adnanderi.com.tr</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Adnan Deri is a leather factory that was established in 1993 and started its manufacturing process in Tuzla, Istanbul.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Others 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ADORNOS CLEMENT, SL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P.I. CARRUS - RONDA VALL D'UXO, 5 28 - ELCHE- ALICANTE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>www.fclement.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Metal accessories for shoes, laces, ribbons and elastics.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elastics : Footwear 
+Buckles : Footwear 
+Laces : Footwear 
+Ribbons : Footwear 
+Trimmings : Footwear 
+Digital printing : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ADRIATICA ACCESSORI EREDI CIPPARRONE GIOVAMBATTISTA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VIA CLEMENTINA, 14 - CHIARAVALLE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>www.aa-italy.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Import/export HOT STAMPING FOIL, articles and TOOLS for Footwear Industries, elastics rubber bands, silver refils and heat sensitive ink refills, brushes, glue containers, crepe sheets, cutting boards, abhrasives, Cutting boards</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nails : Footwear 
+Sheets Other materials : Footwear 
+Punching : Footwear 
+Pigments : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AF DI ALBARELLO FERDINANDO INTL. SRL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VIA SONCINO, 1 - MILANO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>www.albarelloferdinando.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Precious exotic leather and panels manufacturing: fish, eels, varius snakes, reptiles, ostriches, zebras, antelope, silky calf, cavallino, goldenory, astrakan, Lamb, Goat for Fotwear, leather product, upholstery</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Mixed 
+Calves : Mixed 
+Calves : Mixed 
+Calves : Mixed 
+Goats / kids : Mixed 
+Goats / kids : Mixed 
+Goats / kids : Mixed 
+Goats / kids : Mixed 
+Sheep : Mixed 
+Sheep : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ALVIN PELLI SRL SOCIO UNICO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INTERPORTO DI NOLA - LOTTO C NO. C2 - NOLA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>www.alvinpelli.it</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Finished leather for footwear, handbags and leathergoods in general. Goat, goat suede and sheep skins, split suede and by kast. Calf embossed calf, patent and horse hair</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Mixed 
+Calves : Vegetable 
+Chamois : Vegetable 
+Splits : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AGILE SRL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VIA DEL VICANO, 2 - LOC. LA MASSOLINA - PELAGO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>www.mondoagile.it</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Colour printing and peculiar applications on finished leathers for garments, leather goods, footwear, upholstery</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embroideries/Decorations : Leathergoods 
+High frequency 3d embossing and microinjection : Garment 
+High frequency 3d embossing and microinjection : Leathergoods 
+High frequency 3d embossing and microinjection : Footwear 
+Digital printing : Leathergoods 
+Digital printing : Footwear 
+Screen printing : Leathergoods 
+Screen printing : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AG TEXTIL P.E., SL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C/GERMAN BERNACER, 58. ELCHE PARQUE EMPRESARIAL. - ELCHE (ALICANTE)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>www.agtextil.es</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Premium textile, synthetic furs, sheep imitation materials and fabrics for clothing, footwear and accessories. Soft, trendy, comfortable and warm textiles.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synthetic furs : Footwear 
+Synthetic furs : Footwear Upper 
+Synthetic furs : Footwear Lining 
+Synthetic furs : Women's shoes 
+Synthetic furs : Women's shoes Classical 
+Synthetic furs : Women's shoes Free Time 
+Synthetic furs : Men's footwear 
+Synthetic furs : Men's footwear Classical 
+Synthetic furs : Men's footwear Free Time 
+Synthetic furs : Children's footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AHI DERI SANAYI VE DIS TIC LTD STI</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yeni tabakhaneler 5 nolu sokak no 3 Gerede - BOLU</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>www.ahideri.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Bovine leather tannery</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cows : Chrome 
+Cows : Chrome 
+Cows : Chrome 
+Cows : Chrome 
+Cows : Chrome 
+Bulls : Chrome 
+Bulls : Chrome 
+Bulls : Chrome 
+Bulls : Chrome 
+Bulls : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AIDA ITALY SRL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VIA CARLO ALBERTO DALLA CHIESA 3 - LONATO DEL GARDA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>www.aidaitaly.it</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FASHION, TECHNICAL, LAMINATED, ECOLOGICAL, GLITTER, VINYL, REINFORCING FABRICS FOR FOOTWEAR AND LEATHER GOODS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Leathergoods 
+Combined fabrics : Footwear Lining 
+Combined fabrics : Footwear Upper 
+Combined fabrics : Footwear 
+Fabrics : Footwear Lining 
+Fabrics : Leathergoods 
+Fabrics : Footwear 
+Fabrics : Footwear Upper 
+Fabrics : Safety footwear 
+Fabrics : Sport footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AIR COLLECTION SRL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VIA F. VANNETTI DONNINI, 63 - PRATO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>www.aircollection.it</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Embroidery on leather and fabrics, laser-cut, special techniques such as ribbons, mignon, sequins, hand made embroidery effect, sponging stitching,carpet for accessory, footwear and leather goods</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interlaced : Leathergoods 
+Interlaced : Footwear 
+Embroideries/Decorations : Garment 
+Embroideries/Decorations : Leathergoods Luggage 
+Embroideries/Decorations : Leathergoods Belts 
+Embroideries/Decorations : Leathergoods Bags 
+Embroideries/Decorations : Leathergoods 
+Embroideries/Decorations : Gloves 
+Embroideries/Decorations : Women's shoes 
+Embroideries/Decorations : Footwear Upper 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AIRILY AB SRL</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VIA XXV APRILE, 10 - PAGLIARE DEL TRONTO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Production and sale of hot fix accessories: transfers, rhinestones, rhinestuds, production of rhinestone motifs, various applications LASER CUT</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embroideries/Decorations : Footwear Upper 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AKFORM AYAKKABI VE TEKSTIL SANAYI TICARET LIMITED ŞIRKETI</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IKITELLI OSB AYKOSAN 2. KISIM 10. ADA C-D BLOK BASAKSEHIR - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>www.akform.com.tr</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FOAM AND INSOLE PRODUCTION. MEMORY-HIGH DENSITY-RECYCLED FOAM, GEL, PU, EVA insoles for all types of footwear for men-women-children, safety shoes, sandals and slippers.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heel cushions : Safety footwear 
+Foot supports : Footwear 
+Foot supports : Safety footwear 
+Toe puffs : Footwear 
+Insole linings : Footwear 
+Insoles : Footwear 
+Insoles Leather : Footwear 
+Insoles Synthetic materials : Footwear 
+Insoles Other : Safety footwear 
+Insoles Other : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ALASKA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VIA DEI CONCIATORI, 51 - SAN MINIATO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>www.conceriaalaska.it</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Calf, side calf and buffalo products for footwear and leather goods</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ALBERTO ROSI SRL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VIA LAZIO, 42 - PIEVE A NIEVOLE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>www.albertorosi.it</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Leather agents. Cow and goat and sheep leather for uppers, linings for footwear and nappa for garments</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Mixed 
+Calves : Mixed 
+Calves : Mixed 
+Calves : Metal free 
+Calf sides : Chrome 
+Buffaloes : Chrome 
+Buffaloes : Chrome 
+Buffaloes : Chrome 
+Buffaloes : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ALCANTARA SPA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>VIA MECENATE, 86 - MILANO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>www.alcantara.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Alcantara is the Italian Company globally producing and marketing the unparalleled material,result of a proprietary technology, under the registered trademark Alcantara®.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Woven non woven : Footwear 
+Woven non woven : Bookbinding 
+Woven non woven : Technical articles 
+Woven non woven : Sport articles (kicking balls, gloves, motor bike suits, etc.) 
+Woven non woven : Gloves 
+Woven non woven : Garment 
+Woven non woven : *Upholstery 
+Woven non woven : Leathergoods Luggage 
+Woven non woven : Leathergoods Belts 
+Woven non woven : Leathergoods Bags 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ALC TECNOLOGIE ADESIVE SRL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VIA ROBASSOMERO, 22 - VENARIA REALE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>www.alcgruppo.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Industrial bonding systems. Manufacturers of adhesive tapes and patented application systems. Sectors: footwear, leather goods and textiles</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ribbons : Leathergoods 
+Ribbons : Footwear 
+Toe puffs Support for shoes : Footwear 
+Insole linings : Footwear 
+Glues : Leathergoods Luggage 
+Glues : Footwear 
+Glues : Leathergoods Belts 
+Glues : Leathergoods Bags 
+Glues : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ALDERI TIC SAN LTD</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Organize Deri Sanayi Bolgesi, K1 Parsel n.1 - Tuzla</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>www.splitgroup.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Alderi, member of the International Leather Split Group, trades from Turkey wet-blue splits, lime splits, hides, and crust all around the world.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ALFREDO CARREA &amp; FIGLI SRL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VIA PIAVE, 6-10 - GENOVA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>www.carreaonline.it</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Insoles, foot supports, shoe accessories, shoe and leather care products, shoe polish, shoe horns, shoe trees, shoe brushes, shoe laces, kits, bags and boxes for shoe accessories, shoe repair products.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heel cushions : Footwear 
+Shoe-horn : Footwear 
+Buckles : Leathergoods Belts 
+Lasts Plastic : Footwear 
+Lasts Wood : Footwear 
+Laces : Footwear 
+Sheets : Footwear 
+Foot supports : Footwear 
+Insole linings : Footwear 
+Heel layers : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ALMANSA CUERO-PIEL SL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>C/MAESTRO JUSTO MAS, 7 - ALMANSA-ALBACETE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>www.almansacueropiel.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Woven leather. Leathers</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goats / kids : Chrome 
+Pigs : Chrome 
+Splits : Chrome 
+Sole leather : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ALOFT LDA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rua das Alminhas 172 - Vila do Conde</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>www.we-aloft.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>We specialise in the design and production of injection footwear (wellies and clogs) and technical soles in SCF (E-BLAST), TPU, TR and Rubber.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear 
+Soles Rubber : Footwear 
+Soles Thermoplastic : Footwear 
+Soles Vulcanized : Footwear 
+Soles PVC : Footwear 
+Soles PU : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ALPAKA DERI SAN VE TIC LTD STI</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CORLU DERI IHTISAS VE KARMA O.S.B. MARMARACIK O.S.B. MAH. KUZEY CAD. NO:36/1 ERGENE - TEKIRDAG</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>www.alpakaderi.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fur and leather</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Metal free 
+Lambs : Metal free 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AL.PI. SRL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VIA SANSOVINO, 42 - MORROVALLE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>www.alpisoles.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trade and production of shoes components manufacturing and patent management.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ALRAN SAS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B.P. 180 - 13, RUE DU LAVOIR - MAZAMET</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>www.alran.fr</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Goat and calf for leather goods, accessories, footwear, upholstery and bookbinding. Vegetable and combined tanning, nubuck, suede, aniline and various finishing</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calf sides : Chrome 
+Calf sides : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Mixed 
+Goats / kids : Vegetable 
+Goats / kids : Vegetable 
+Goats / kids : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ALRIC MEGISSERIE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11, RUE DE LA SAUNERIE B.P. 227 - MILLAU CEDEX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>www.alric-tannerie.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Suede and "plongés" lambskins and baby calf. Light leathers for garments, gloves and leather goods</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ANTONELLI RICAMIFICIO SNC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VIA MACERATA, 319 - MONTE SAN GIUSTO</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>www.ricamificioantonelli.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FASHION RECIPES AND WORKS. DETAILS, LASER PROCESSING, STRASS AND PORTABLE PROCESSING, MOLDING, CORNELY PROCESSING, SEQUINS APPLICATIONS, DIGITAL PRINTING, CHAIN APPLICATIONS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embroideries/Decorations : Footwear Sole 
+Embroideries/Decorations : Women's shoes 
+Embroideries/Decorations : Men's footwear 
+Embroideries/Decorations : Children's footwear 
+Embroideries/Decorations : Leathergoods 
+Embroideries/Decorations : *Upholstery 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AL.VI.PEL SRL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>VIA MARBELLO, 15 - LITTA PARODI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>www.alvipel.it</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Goatskin and sheepskin for lining, full chrome, chrome free and metal free</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheep : Metal free 
+Goats : Chrome 
+Goats : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AMALTEA CONCERIA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Via di Casellina, 73-75 - Scandicci</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>www.ingropelli.it</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Production of articles for linings and leather goods specialized on nappa lamb, suede and laminated</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calf sides : Chrome 
+Calf sides : Chrome 
+Buffaloes : Vegetable 
+Buffaloes : Vegetable 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Vegetable 
+Goats / kids : Vegetable 
+Lambs : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AMBASSADOR CONCERIA SPA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>VIA DEL FONTINO, 7/11 - S. CROCE S/A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>www.ambassadorconceria.it</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Suede and finished splits for footwear, leather goods and leatherwear</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AMB FACTORY SRL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VIA BOSCOFANGONE - ZONA ASI - NOLA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>www.ambfashiongroup.com</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Production and trade of accessories for footwear, clothing and leather goods</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittings : Footwear 
+Buttons : Garment 
+Chains : Leathergoods Bags 
+Elastics : Garment 
+Buckles : Footwear 
+Lasts Other materials : Footwear 
+Hooks : Footwear 
+Trinkets Metallic : Footwear 
+Ribbons : Garment 
+Eyelets : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AMERICAN SUPPLY CORPORATION SA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>POL. IND. LAS ATALAYAS - AVDA ANTIGUA PESETA, 147 - BUZON 20091 - ALICANTE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>americansupply.es</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fashion fabrics for footwear and leathergoods. High quality recycled glitter fabrics. Recycled, technical and vegan fabrics. Digital Print. Converter of different materials and backings</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabrics : Technical articles 
+Fabrics : Garment 
+Fabrics : Leathergoods Bags 
+Fabrics : Leathergoods 
+Fabrics : Safety footwear 
+Fabrics : Sport footwear 
+Fabrics : Orthopaedic footwear 
+Fabrics : Children's footwear 
+Fabrics : Men's footwear Free Time 
+Fabrics : Women's shoes Free Time 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AMFA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>34, 6th cross street - Chennai</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>www.amfa.in</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>All kind of finished leathers like lamb, goat, cow and buffalo</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Mixed 
+Calves : Mixed 
+Buffaloes : Mixed 
+Buffaloes : Mixed 
+Goats / kids : Mixed 
+Goats / kids : Mixed 
+Sheep : Mixed 
+Sheep : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AM INTECH SP. Z O.O.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Przemysłowa 40 - Rzezawa</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>www.amintech.pl</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Production of shoe insoles, shoe care products, laces and footwear materials manufacturer.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laces : Footwear 
+Insole linings : Footwear 
+Insoles : Footwear 
+Polishes : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A.M.P. DI P. GREGGIO SAS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VIA ITALIA 50 - BIELLA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>www.ampeditore.it</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PRESS</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ANACONDA SRL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VIA M.L. KING, 6/8 - PONTE A EGOLA - S. MINIATO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>www.anaconda.it</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Real reptile leather for leather goods, footwear, clothing, furnishings</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+Reptiles : White 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ANALCO AUXILIAR CALZADO SA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>C/ GERMAN BERNACER, Nº 11-BAJO - ELCHE - ALICANTE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>www.analco.es</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Rubber-cork anatomic footbeds, thermoformed EVA insoles, PU footbeds, TR, TPU and rubber soles, EVA and rubber sheets.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheets : Footwear 
+Sheets : Orthopaedic footwear 
+Insoles : Footwear 
+Insoles Other : Footwear 
+Soles : Footwear 
+Soles Men : Footwear 
+Soles Women : Footwear 
+Soles Children : Footwear 
+Soles Rubber : Footwear 
+Soles Vulcanized : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ANAN (CHINA) CO., LTD</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>N.11 Anan Road, Changtai Economic Development Zone, Changtai - Zhangzhou, Fujian</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>www.anan-cn.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Microfiber for linings, uppers, footwear and leather goods</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PU coated woven non woven : Footwear 
+Microfibers : Gloves 
+Microfibers : *Upholstery 
+Microfibers : Leathergoods Bags 
+Microfibers : Leathergoods 
+Microfibers : Safety footwear 
+Microfibers : Technical articles 
+Microfibers : Men's footwear 
+Microfibers : Women's shoes 
+Microfibers : Footwear Lining 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ANGELETTI GROUP SRL</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Via Veregrense, 211 - MONTEGRANARO</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>www.angelettigroup.eu</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>We produce uppers, laces, piping, welts, hand weaving, mignon all in leather and in synthetic</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ANHUI ANLI MATERIAL TECHNOLOGY CO., LTD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TAOHUA INDUSTRIAL ZONE - HEFEI - ANHUI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>www.chinapuleather.com</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PU synthetic materials</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PU coated linings : Footwear Lining 
+PU coated woven non woven : Footwear 
+PU coated fabrics : Leathergoods Bags 
+PU coated fabrics : *Upholstery 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ANHUI BOBANG MICROFIBER MATERIAL CO., LTD.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Shucheng County, Shucha town, leather industrial park, Lu 'an City - Anhui</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>www.bbcxpg.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Unfigured microfiber suede, Figured microfiber suede, Polyester microfiber suede, etc.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microfibers : Car body 
+Microfibers : Leathergoods Bags 
+Microfibers : Leathergoods 
+Microfibers : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ANHUI DEEWANG MFG. CO., LTD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>11F, QIRONG INTERNATIONAL PLAZA, NO.502 WEST WANGJIANG RD, HIGH AND NEW TECHNOLOGY DEVELOPMENT ZONE, HEFEI - ANHUI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>www.deewang-leather.com</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PU&amp;PVC synthetics, microfiber, knitting&amp;tatting fabrics</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PU coated linings : Footwear 
+Microfibers : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ANHUI HENGTONG LEATHER CO., LTD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hengtong leather industrial park - Fuxing Town, Susong County, Anqing, Anhui</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>www.xunapg.com</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cow hair calf/shearling</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hair-on bovine leather : Others 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ANHUI QIANGSHENG SYNTHETIC MATERIAL CO., LTD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NO.5 LEATHER AREA, XIAOXIAN ECONOMIC DEVELOPMENT ZONE, SUZHOU - ANHUI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>WWW.QSLEATHER.COM</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Imitation microfibre for lining, breathable and water absorbent</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synthetic furs : Footwear 
+Microfibers : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ANTIBA SPA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VIA MARTIN LUTHER KING 39, 41, 43 - PONTE A EGOLA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>www.antiba.it</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Goats, half calves and lambskin chrome and vegetable tanned, levant, aniline dyed, laminated, printed and patent for shoes and leather goods</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ANTICHI CONCIATORI UNIPERSONALE SRL</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VIA LOMBARDIA, 27 - SANTA CROCE SULL'ARNO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Production of vegetable baby calf for footwear</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veals : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ARTI MODA SAL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HARBOYAN TRADE CENTER, BLOCK C, 1ST FLOOR DORA HIGHWAY - BEIRUT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>www.artimoda.com</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>High quality metal accessories for shoes and bags, belts, fashion accessories and clothing</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittings : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ANTONIANA MINUTERIE SRL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VICOLO GELA, 24 - ALBIGNASEGO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>www.antonianamin.it</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Production of accessories for shoes: hooks, rings, eyelets, buckles and special hooks made by metallic materials, Zamak and plastic materials.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinkets Metallic : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>APC GOLD SRL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VIA GALLI, 19/21 - VIGEVANO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>www.apcsrl.it</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cotton and synthetic fabrics, self adhesive and thermoadhesive reinforcing for shoes and leather goods, microfibers. Adhesive nail-covers. Thermoadhesive films, biodegradable reinforcements.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toe puffs Support for shoes : Technical articles 
+Heel seat linings : Technical articles 
+Heel seat linings : Footwear 
+Punching : Leathergoods Bags 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ARCHIVIO SRL</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VIA L.B. ALBERTI, 14 - ARZIGNANO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>www.archiviosrl.com</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Production and trading cow for leather goods, footwear and garment</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>AREAT BY FUSTELLIFICIO TOSCANO</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Via Santa Maria Maddalena, 50 - Figline Incisa Valdarno</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>www.fustellificiotoscano.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Print on leather, high frequency, hot printing, laser, thermoforming, heat-sealed trim on fabric, relief leather</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">High frequency 3d embossing and microinjection : Footwear 
+High frequency 3d embossing and microinjection : Leathergoods 
+Laser : Leathergoods 
+Laser : Footwear 
+Digital printing : Footwear 
+Digital printing : Leathergoods 
+Transfer foils/film : Leathergoods 
+Transfer foils/film : Footwear 
+Screen printing : Footwear 
+Screen printing : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ARGOPEL SRL</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VIALE BORRI, 16 - CASTELLANZA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>www.argopel.it</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Leather accessories for garment: braids, plaits, tapes, fringes, buttons, toggles. Woven and perforated leather</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edges : *Upholstery 
+Edges : Garment 
+Edges : Gloves 
+Edges : Bookbinding 
+Edges : Footwear 
+Edges : Leathergoods 
+Buttons : Footwear 
+Buttons : *Upholstery 
+Buttons : Garment 
+Decorations : *Upholstery 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ARKE' CONCERIA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VIA LOMBARDIA, 11 - SANTA CROCE SULL'ARNO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>www.arkeconceria.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VEGETABLE TANNED AND METAL FREE SHOULDERS, DOUBLE BUTTS, CALF FOR LEATHER GOODS, FOOTWEAR, FORNITURE AND SADDLERY.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Vegetable 
+Calves : Vegetable 
+Calf sides : Vegetable 
+Calf sides : Vegetable 
+Butts : Vegetable 
+Butts : Vegetable 
+Butts : Vegetable 
+Backs : Vegetable 
+Backs : Vegetable 
+Backs : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ARNAL TANNERY</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>27, Avenue de l'Abbaye - LE MONASTERE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>www.tannerie-arnal.fr</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cattles leathers in vegetable tanning for saddlery, leathergoods, upholstery and shoe industry.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ARNELLA CONCERIA SPA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VIA E. FERMI, 28-30-32 - S. CROCE SULL'ARNO</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>www.arnella.it</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Half calf for footwear and leather goods</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ARNEPLANT SL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>P.E. La Maja, C/Cosme Garcia 1-3 - ARNEDO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>www.arneplant.com</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>100% breathable insoles</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insoles : Safety footwear 
+Insoles : Sport footwear 
+Insoles : Footwear 
+Insoles Leather : Men's footwear Sports 
+Insoles Leather : Men's footwear Classical 
+Insoles Leather : Men's footwear 
+Insoles Leather : Technical articles 
+Insoles Leather : Women's shoes Sports 
+Insoles Leather : Women's shoes Classical 
+Insoles Leather : Women's shoes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>AROMATA SRL</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>VIA PAOLO PAOLETTI, 5 - MONTALE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>www.aromata.it</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Production of fabrics and fancy interweavings. Raffia, linen cotton, wool and fancy threads. Personalised articles</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabrics : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ARPEX TEXTILES SRL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>VIA FOGGIA, 47 - BARLETTA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>www.arpexsrl.it</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Production of shoe-laces, ribbons, woven labels for footwear and clothing</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Labels : Footwear 
+Laces : Footwear 
+Ribbons : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ARS FLORENCE SRL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>VIALE A. GRAMSCI, 45 - BARBERINO MUGELLO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>www.arsflorence.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Exclusive creations - buckles - clamps - metal belts - trinkets - decorations. Metal accessories for footwear and leather goods</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buckles : Leathergoods Belts 
+Trinkets Metallic : Leathergoods Belts 
+Clamps : Women's shoes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ARSUTORIA SCHOOL SRL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VIA I. NIEVO, 33 - MILANO</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>www.arsutoriaschool.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FASHION SCHOOLS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ART ANTIBA RUSSO TOGETHER SRL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Via Giacomo Puccini 16 - Napoli</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>www.instagram.com/art_antiba_russo_together/?hl=it</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Lamb nappa for leather goods, footwear and garments</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ARTEKS TEKNIK TEKSTIL LAMINASYON SANAYI AS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>YENI MAHALLE, CEBECI CAD. 542/1 SOK. NO:10 - KUCUKKOY / GAZIOSMANPASA - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>www.artekslaminasyon.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Hotmelt coating and lamination. Shoe reinforcement fabric production</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insole linings : Footwear 
+Finishing products : Footwear 
+Thermoplastic granuls for shoes : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ARTELIER SRL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VIA L.CERESANI, 8 - SERRA DE' CONTI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>www.arteliersrl.it</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Skilled craftsmen specialised in weaving, hand threading, mignons and tubulars making, printing, hotfix applications for footwear, leather goods, fashion</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> :  
+ :  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ARTESA MANUFACTURAS SL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Gutierrez de Cardenas, 36 - CREVILLENTE (ALICANTE)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>www.artesa-sl.com</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Fabrics, braids, crochets and developments manufacturing for shoes and bags.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strips : Footwear Upper 
+Elastics : Footwear Upper 
+Interlaced : Footwear Upper 
+Upper Fabric : Footwear Upper 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ARTIGIANA CATENE SNC</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>VIA ABBIATEGRASSO 12 - CISLIANO</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>www.artigianacatene.it</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ornamental chains producer</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chains : Garment 
+Chains : Leathergoods 
+Chains : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ARTIGIANO DEL CUOIO SRL</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>VIA ROMAIANO, 12 - PONTE A EGOLA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>www.artigiano.it</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Vegetable tanned shoulders for footwear, leather goods and bookbindery. Goat vegetable tanned</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goats / kids : Vegetable 
+Shoulders : Vegetable 
+Shoulders : Vegetable 
+Shoulders : Vegetable 
+Shoulders : White 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B.A.P. SPA CHIUSURE LAMPO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>VIA GENNARO SORA, 16/A - VILLONGO</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>www.bapgroup.it</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Production of standard and well-brushed zip coloures in various colours and finishes with a great variety of zip pullers</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittings : Garment 
+Buttons : Garment 
+Zip fasteners : Garment 
+Zip fasteners : Leathergoods 
+Zip fasteners : Footwear 
+Labels : Garment 
+Trinkets Metallic : Garment 
+Eyelets : Garment 
+Rivets : Garment 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ARTISAN FASHION</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ethical Fashion Artisans EPZ Ltd Growth Point Warehouses - Nairobi</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>artisan.fashion</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Artisan Fashion is a Kenyan social enterprise that connects Africa’s artisans to esteemed luxury brands all over the world through production of jewellery, homeware and bags</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ARX COMPANY SRL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>via ca' sordis n.10/B-10/C - Montebello Vicentino</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>www.arxcompany.it</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Leather origin Italy and europe for upholstery bags and shoes.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ASCOT SPA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Sede Legale: Via Marche, 4 56029 SANTA CROCE SULL'ARNO (PI) - S. CROCE S/ARNO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>www.ascotspa.it</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Laminated kids, kids for linings. Laminated printed kid and calf leather, imitation reptile printed kid and calf leather. Camel vegetable, soft and laminated leathers</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Sheep : Chrome 
+Others : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ASEN TANNERY</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>IDOSB SAMA CAD. NO:14 M1-2 PARSEL TUZLA - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>www.asenleather.com</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Pellami pregiati per borse, calzature, cinture, pelletteria, arredamento, ecc.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Box calves : Chrome 
+Box calves : Chrome 
+Buffaloes : Vegetable 
+Buffaloes : Vegetable 
+Buffaloes : Vegetable 
+Buffaloes : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ASG LEATHER PVT LTD</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Plot No. 903 A&amp;B. Zone - 10. Kolkata Leather Complex - South 24 Paraganas</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>www.kompanero.in</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MANUFACTURER OF FINISHED LEATHER</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Mixed 
+Calves : Mixed 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Mixed 
+Lambs : Mixed 
+Lambs : Others 
+Cows : Chrome 
+Cows : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ASOLTEX</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>www.asoltex.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LAMINATED FABRICS AND ADHESIVE FOAMS FOR FOOTWEAR, LEATHER GOODS, FURNITURE AND GARMENTS; THERMOFORMED</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Technical articles 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ASSOMAC - ASSOCIAZIONE NAZIONALE COSTRUTTORI TECNOLOGIE PER CALZATURE, PELLETTERIA E CONCERIA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Via Matteotti, 4/a - Vigevano</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>www.assomac.it</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Assomac is the National Association of Italian companies making machines and accessories for Footwear, Leathergoods and Tanning sector.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ASTICO SCAMOSCERIA SRL</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VIA MARCO CORNER, 32 Z.I. - THIENE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>www.astico.com</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Polyurethane, pigmented suede splits for footwear, furnishings and leather goods. Buffalo and bovine for upholstery and furnishings. Pigmented microfiber</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Buffaloes : Chrome 
+PU splits : Chrome 
+PU splits : Chrome 
+PU splits : Chrome 
+PU splits : Chrome 
+PU splits : Chrome 
+PU splits : Chrome 
+PU splits : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ASV STÜBBE PORTUGUESA, LDA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TRAVESSA DE COVAS, LANTEMIL - TROFA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>www.stubbe.pt</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Accessories and components</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles PU : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ATA SRL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>VIALE DEL LAVORO, 26/28 - ARCONATE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>www.atatex.com</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Customized fabric bags and clothes in : cotton, organic cotton and recycled cotton, Non-woven fabric: polypropylene, polyester - nylon. For footwear and leather goods. Cotton shopper bags.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bags : Bookbinding 
+Bags : Leathergoods 
+Bags : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>A TEMA CONCERIA SRL</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>VIA DELL'INDUSTRIA, 76-78-80 - CASTELFRANCO DI SOTTO</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>www.a-tema.com</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Top quality printed leathers, imitation croco, python, ostrich, teyus lizard, ETC... High finished product. LWG certified</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : White 
+Calf sides : Mixed 
+Calf sides : Mixed 
+Calf sides : White 
+Calf sides : Metal free 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ATLANTA - COMPONENTES PARA CALÇADO, LDA</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Marco de Simães, nº1644 - LIXA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>www.atlantasteps.com</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Injected soles in TR and TPU one, bicolor and three color. Soles in SBR/EVA/LEATHER</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ATRADIUS CREDITO Y CAUCION DE SEGUROS Y REASEGUROS SA</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>VIA CRESCENZIO, 12 - ROMA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>www.atradius.it</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Atradius provides trade credit insurance, surety and collections services worldwide through a strategic presence in more than 50 countries</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>AUSHAN VIVIIN CO., LTD</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>35-37# N.2 street Longtou market. Shiling town, Huadu District - Guangzhou</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>High-grade PU, mainly applies for handbags</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PU coated fabrics : Gloves 
+PU coated fabrics : Garment 
+PU coated fabrics : Leathergoods Belts 
+PU coated fabrics : Leathergoods Bags 
+PU coated fabrics : Leathergoods 
+PU coated fabrics : Women's shoes Classical 
+PU coated fabrics : Women's shoes 
+PU coated fabrics : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>AVERPEAUX</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>B.P. 168 - Z.I. BONNECOMBE - 4, RUE DE LA FERRONNERIE - MAZAMET</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>www.averpeaux.fr</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Goats, calves, lambs, sheeps for uppers and linings for shoes for leather goods and garments</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Vegetable 
+Calves : Metal free 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Buffaloes : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>AYGÜLER DERICILIK SAN TIC LTD STI</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DERI OSB MAH. Kumpas Caddesi N. 32 - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>www.ayguler.com.tr</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Wet Blue Hides, Crust</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BADALASSI CARLO SRL</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>VIA MARTIN LUTHER KING, 45-49 - PONTE A EGOLA - S. MINIATO</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Vegetable leather tanned in Tuscany, for shoes and leathergoods.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shoulders : Vegetable 
+Shoulders : Vegetable 
+Shoulders : Vegetable 
+Shoulders : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BALLARINI SRL</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>VIA ASPIO, 29 - LUCREZIA DI CARTOCETO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>www.ballarinisrl.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Belt rods, covered buckles, leather garments for clothing</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Welts Leather : Leathergoods 
+Decorations : Garment 
+Interlaced Leather : Garment 
+Interlaced Leather : Leathergoods Belts 
+Laces : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BANCI NASTRI SRL</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VIA DEI BASSI, 42 - S.MAURO A SIGNA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>www.bancinastri.com</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Manufacturing of ribbons, ropes and trimmings in different synthetic and natural materials: polypropylene, polyestere, cotton, jute for bags, garments and accessories yarns for knitting and crochet</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ribbons : Garment 
+Ribbons : *Upholstery 
+Ribbons : Leathergoods Bags 
+Ribbons : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BIGAGLI LANIFICIO SPA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>VIALE LABRIOLA, 179 - MONTEMURLO</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>www.bigagli.it</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Producers of felts. Wool felts and synthetics.Textiles,fabrics. Felts made with PET recycled fibers. Post consumer wool certified GRS.Felts certified RWS.Fabrics and towel recycled cotton.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Footwear 
+Woven non woven : Footwear 
+Fabrics : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BARBIERI FRATELLI SRL</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VIA LUIGI CANEPA, 9/R - GENOVA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>www.movi.to</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Shoe and foot care products, insoles</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laces : Footwear 
+Trinkets Metallic : Footwear 
+Trinkets Plastic : Footwear 
+Insole linings : Footwear 
+Connections : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BARONE 4 SRL</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Cis di Nola isola 3, 340 - NOLA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>www.4barone.com</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Leathers, chrome calf, vegetable lamb for clothing, footwear, leather goods and belts</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Sheep : Chrome 
+Sheep : Chrome 
+Sheep : Chrome 
+Sheep : Vegetable 
+Sheep : Vegetable 
+Sheep : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BARTOLI SPA</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>VIA TRAVERSA DI PAREZZANA, 12/16 - CARRAIA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>www.bartolispa.it</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Shankboards for insoles, fibreboards for counters, slippers and leather goods, vulcanized fiber, ECOFIBER</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boards : Bookbinding 
+Boards : Technical articles 
+Boards : *Upholstery 
+Boards : Leathergoods Luggage 
+Boards : Leathergoods Bags 
+Boards : Leathergoods 
+Boards : Safety footwear 
+Boards : Sport footwear 
+Boards : Orthopaedic footwear 
+Boards : Children's footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>BBM INTERNATIONAL SRL</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>VIA GARIBALDINI, 27-29 - ROBECCHETTO CON INDUNO</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>www.bbminternational.it</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Processing and trade of finished and semi-finished leather</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Goats / kids : Chrome 
+Sheep : Chrome 
+Sheep : Chrome 
+Sheep : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B-CHEM SRL</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>VIA ENZO FERRARI, 68 - CIVITANOVA MARCHE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>www.b-chem.net</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Adhesives that can meet a wide range of requirements in the fields of shoe industry and upholstered furniture</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glues : *Upholstery 
+Glues : Footwear 
+Glues : Leathergoods 
+Thinning agents : *Upholstery 
+Thinning agents : Leathergoods 
+Thinning agents : Footwear 
+Mastics : *Upholstery 
+Mastics : Leathergoods 
+Mastics : Footwear 
+Solvents : *Upholstery 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B.C.N. CONCERIE SPA</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>VIA E. FERMI, 25 - S. CROCE S/A</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>www.bcn.it</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Chrome and vegetable tanned calves and calf sides for footwear and leather goods</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BEDINI F.LLI SRL</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>VIA DON LORENZO MILANI, 6/A - QUATTRO CASTELLA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>www.bedini-flli.com</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fabrics plain and printed, jacquard, taffetas, gobelin in silk, poliester, microfibre, crinkled, sanded waterproof and breatheable, coated, lustre. Recycled fibers and eco-sustenailable</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Leathergoods 
+PU coated linings : Leathergoods 
+Fabrics : Leathergoods 
+PU coated fabrics : Leathergoods 
+Printed fabrics : Leathergoods 
+Fabrics with special treatments : Leathergoods 
+Microfibers : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BELLO SPA</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Località Carpisano - SOLOFRA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>www.conceriabello.it</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Baby calf for garments and leather goods. Goat/sheep skins for garments, bags, leather goods and footwear. Natural, aniline and semi-aniline finishing. Vegetable, chrome and mixed tanning</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Goats / kids : Vegetable 
+Sheep : Chrome 
+Sheep : Chrome 
+Lambs : Chrome 
+Wool sheep : Mixed 
+Wool sheep : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BELTRAME LUCIANO SRL</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>VIA S. MARCO, 56 - S.ANGELO DI PIOVE IN SACCO</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>www.beltrameluciano.com</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Production of shoe counters and tips</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Counters : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BEMA SRL</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>VIA DEL LAVORO, 63 - ARZIGNANO</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>www.bemasrl.it</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Production various finished leathers: bovine and baby calf hair-on leather specialized in maxi shaved on bovine hair-on leather</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Calves : Mixed 
+Calves : Mixed 
+Calves : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BENERICETTI SRL</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>VIA DELLA QUERCIA, 3 - CASTELFRANCO DI SOTTO</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>www.benericettiromano.it</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Production of basics and innovative fashion materials. Calf and bovine</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Mixed 
+Calf sides : White 
+Calf sides : White 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BENJAMINS SRL</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>VIA ENNIO, 6/A - MILANO</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>www.benjamins.it</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Tech, home, sport gadgets and fashion accessories</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinkets Plastic : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BERKEM KURK DERI SANAYI VE TIC AŞ</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>İSTANBUL DERİ OSB DESEN SOKAK NO:9 TUZLA/İSTANBUL - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>www.berkemkurk.com</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Furskin for garment (wool-in/wool-out), fur for footwear, fur for upholstery, double-face</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wool sheep : Chrome 
+Wool sheep : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>BESA PLASTIK SUNI DERI SANAYI AS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>HADIMKOY MAHALLESI DENIZKIZI SOKAK NO5 ARNAVUTKOY - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>www.besasunideri.com.tr</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Producing PVC and PU materials for shoes, bags and sofa.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PVC coated fabrics : Footwear 
+PVC coated fabrics : *Upholstery 
+PVC coated fabrics : Leathergoods Bags 
+PVC coated fabrics : Sport footwear 
+PVC coated fabrics : Men's footwear Free Time 
+PVC coated fabrics : Men's footwear Sports 
+PVC coated fabrics : Men's footwear Classical 
+PVC coated fabrics : Men's footwear 
+PVC coated fabrics : Women's shoes Free Time 
+PVC coated fabrics : Women's shoes Sports 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>BEYSA DERI SAN VE TIC LTD STI</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Kuzey Cad. No:31/1 Corlu Deri Ihtisas ve Karma OSB. Marmaracik OSB Mah. Ergene - TEKIRDAG</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>www.beysaderi.com</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Finished Doubleface Lambskins</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BG SRL</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>VIA G. DI VITTORIO, 3/A-3/B - Z. IND. TERRAFINO - EMPOLI</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>www.bgpellami.it</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Leather trade, goat suede, shearling and sheepskin for clothing, accessories and linings</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Mixed 
+Goats / kids : Chrome 
+Lambs : Mixed 
+Lambs : Mixed 
+Wool sheep : Mixed 
+Chamois : Mixed 
+Others : Mixed 
+Others : Mixed 
+Goats : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BIAGIOLI INDUSTRIE SPA</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>VIA BONAZIA, 7 - PRATO</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>www.biagioli.com</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Needle-punched non-wovens for shoes insoles for all kinds of applications: strobel-stitching, stitch-down, full-board last, lasted-cemented, good-year. Antistatic for safety shoes. Vamp lining</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felts : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BIASIOTTO ITALIA SRL</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>VIA DELL'ARTIGIANATO, 22 - VICENZA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>www.alteray.it</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Components for shoes, as counters, toe puffs, foam heel pads, insole leather and inserts, also silkscreen printing Photocromatic yarms</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Counters : Footwear 
+Threads : Technical articles 
+Toe puffs : Footwear 
+Heel seat linings : Footwear 
+Screen printing : Garment 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>BI-CO FUSTELLIFICIO SRL</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>VIA GUIDO ROSSA, 31 - VILLA SAN FILIPPO - MONTE SAN GIUSTO</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>www.bico.it</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Steel cutting dies, brass stamps, pantographic embossing moulds and accessories for embossing leather goods</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Socket punches : Footwear 
+Socket punches : Leathergoods 
+Socket punches : Footwear Sole 
+Socket punches : Footwear Upper 
+Socket punches : Leathergoods Bags 
+High frequency 3d embossing and microinjection : Leathergoods 
+High frequency 3d embossing and microinjection : Footwear 
+High frequency 3d embossing and microinjection : Leathergoods Bags 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BRIZZI AGENZIE SRL</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>VIA VALBRONA, 4 - MILANO</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Box calf and aniline tanned calves, American cattle leather, buffaloes, silk suede and classic English, kids, buffaloes, horses, antelopes and reptiles, Real Cordovan</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Mixed 
+Calves : Chrome 
+Calves : Chrome 
+Box calves : Chrome 
+Reptiles : White 
+Reptiles : White 
+Splits : Chrome 
+Others : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BILSAN KAUCUK PLS SAN VE TIC AS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Karlıbayir Mah. Bayrak Cad. No:150 Arnavutköy - Istanbul</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>www.bilsan-eva.com</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Eva foam sheet and roll, microlite, Epdm Foam and Eva Compound</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheets Rubber : Orthopaedic footwear 
+Sheets Rubber : Footwear 
+Soles : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BISONTE CUOIFICIO SPA</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>VIA A. MASINI, 36 - S. CROCE SULL'ARNO</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>www.cuoificiobisonte.it</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Vegetable tanned butts from 3 mm to 6 mm for any kind of shoe sole.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+Sole leather : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BITTO SRL</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Via Risorgimento 10 - Mazzo di rho</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>www.bittosrl.it</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Leather, fur leather, different samples of skins processing technique</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lambs : Mixed 
+Kangaroos : Mixed 
+Others : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B LINE SRL CONCERIA ITALIANA</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Via Cassano, 45 - Napoli</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>www.conceriabline.it</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Trade of leather for footwear, clothing and leather goods</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Calves : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Lambs : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BLOWTECH</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>VIA SAN PIETRO, 17/B - MONTECAROTTO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>www.gommus.it</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Range of extremelly light soles, made by innovative compounds to meet today's market requirements: lightness, durability and customisation</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BLUEITALY™ GROUP</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Via Egitto, 26 - MONTESILVANO</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>www.blueitaly.org</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Blueitaly™ Group is an activity operating in the textile sector which mainly deals with special processing of fabrics, leathers and plastic materials in general</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plates : Footwear 
+Plates : Garment 
+Plates : *Upholstery 
+Plates : Leathergoods 
+Embroideries/Decorations : Footwear 
+Embroideries/Decorations : Garment 
+Embroideries/Decorations : *Upholstery 
+Embroideries/Decorations : Leathergoods 
+Studs : Leathergoods 
+Studs : Garment 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BLUE STAR SRL</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>VIA L. TOLSTOJ, 51 - SAN GIULIANO MILANESE</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>www.bluestarmilano.com</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Production of buckles and accessories for leather goods, shoes accessories and fashion jewelry</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittings : Garment 
+Buttons : Garment 
+Chains : Leathergoods 
+Buckles : Footwear 
+Buckles : Leathergoods 
+Decorations : Footwear 
+Handles : Leathergoods 
+Trinkets Metallic : Leathergoods Bags 
+Studs : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BM LEATHER SRL</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Via G. Di Vittorio, 84 - EMPOLI</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>www.bmleather.it</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Production and processing of leather items for the leather goods, footwear and clothing sectors</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittings : Leathergoods Bags 
+Buttons : Footwear 
+Buttons : Garment 
+Chains : Leathergoods Bags 
+Buckles : Leathergoods 
+Seat lifts : Leathergoods Bags 
+Decorations : Leathergoods 
+Decorations : Footwear 
+Interlaced : Leathergoods 
+Interlaced Leather : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BOAVENTURA</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ESTRADA DO ALVIELA, Nº835 - S. PEDRO - ALCANENA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>www.boaventura.pt</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Finished leathers for the industry of footwear, leather goods and upholstery. ISO 140001, ISO 9001, IQNET certifications, LWG Gold, REACH compliance</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BODIN-JOYEUX</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>RUE DU CHASSE MIDI - LEVROUX</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>www.bodinjoyeux.com</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Full aniline lambskins leather for footwear, leather goods, clothing.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Chrome 
+Lambs : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BOLFLEX - A. FERREIRA &amp; PEREIRA, LDA</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>RUA NICOLAU COELHO, N.º3315 - FELGUEIRAS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>www.bolflex.pt</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>B-Light/EVA, Rubber, Evo-Light EVA, PU, X-Light, E-rubber, R-Skin, Thermplastic, RECYCLE, SHOES RECYCLE</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insoles : Footwear 
+Soles Rubber : Footwear 
+Soles Thermoplastic : Footwear 
+Soles Vulcanized : Footwear 
+Upper : Footwear 
+Upper Rubber : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BOLZANO BRASIL INDÚSTRIA DE COUROS E PELES LTDA</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RUA LOURO FREIJO, 220, BOA VISTA - SAO LEOPOLDO</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>www.bolzanobrasil.com</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Finished and Crust Leathers for Shoes and Handbags: Floater, Box, Patent, Nubuck, Semi Chrome, Vegetable, Smooth Napa and Fashion Novelties.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Vegetable 
+Cattle sides : Vegetable 
+Cattle sides : Vegetable 
+Cattle sides : White 
+Calf sides : Chrome 
+Calf sides : White 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BONAUDO</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>VIA IV NOVEMBRE, 77 - CUGGIONO</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>www.bonaudo.com</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Baby calf, calf, lamb, cross-bred, mutton, goat, deer and kangaroo.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Box calves : Chrome 
+Sheep : Vegetable 
+Sheep : Vegetable 
+Lambs : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BONAUDO CONTI SPA</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>VIA SAN GIOVANNI SUL MURO, 18 - MILANO</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>www.conceriaconti.biz - www.bonaudo.com</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Leather tanning and finishing (skivers, goats, sheeps, lambs, cross breeds, fashion articles). Tanning and finishing Chrome Free and Metal Free.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheep : Mixed 
+Sheep : Mixed 
+Sheep : Mixed 
+Sheep : Metal free 
+Sheep : Metal free 
+Sheep : Metal free 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BONISTALLI &amp; STEFANELLI SPA</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>VIA PIEMONTE, 4 - Santa Croce Sull'Arno</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>www.bonistallistefanelli.it</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Production of tanned leather, butts: for soles, guards for heels, welts and belts, with a thickness from 3 mm to 6 mm. Drum dyed and pigmented leather in several colours.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BOPELL SRL</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VIA GIOVANNI XXIII, 7 - QUARTO INFERIORE</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>www.bopell.it</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ovine skins for garment, shoes and leather goods. Vegetable crome and free crome tanning. Items range from classical to fashion with different processing tecniques. Both legal, ecological requirements</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Sheep : Chrome 
+Sheep : Chrome 
+Sheep : Vegetable 
+Sheep : Vegetable 
+Sheep : Vegetable 
+Sheep : White 
+Sheep : White 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BOTTONIFICIO LENZI 1955 SRL</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>via Caduti di Nassiria 10 - Castel di Casio</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>www.bottonificiolenzi1955.it</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Manufacturers of buttons and fashion accessories in galalith, real corozo, horn, various kinds of polyester, resin, metal, wood , mother of pearl and Biopolymer.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittings : Leathergoods 
+Fittings : Garment 
+Fittings : Technical articles 
+Fittings : Footwear 
+Rings : Technical articles 
+Rings : Footwear 
+Rings : Leathergoods 
+Rings : Garment 
+Buttons : Garment 
+Buttons : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BRENTA SUOLE SRL</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Via Julia, 23 - VIGONZA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>www.trezetagroup.com</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Manufacturing leather soles</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bottoms : Men's footwear Classical 
+Bottoms : Women's shoes Classical 
+Bottoms Leather : Men's footwear Classical 
+Bottoms Leather : Women's shoes Classical 
+Soles : Men's footwear Classical 
+Soles : Women's shoes Classical 
+Soles Men : Men's footwear Classical 
+Soles Women : Women's shoes Classical 
+Soles Leather : Women's shoes Classical 
+Soles Leather : Men's footwear Classical 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BRITIGRAF</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>www.britigraf.com</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Micro-injection, transfer printing, digital print, high frequency labels, serigraphy, embossing and hot forming, adhesive labels, woven and printed labels, plastic injection, 3D transfert, confort gel.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rings : Technical articles 
+Rings : Footwear 
+Rings : Women's shoes 
+Rings : Men's footwear 
+Rings : Children's footwear 
+Rings : Sport footwear 
+Rings : Safety footwear 
+Counters : Sport footwear 
+Counters : Footwear 
+Counters : Women's shoes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>CARPANESE SPA</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Via G. B. Zaupa, 18 - Chiampo</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>www.conceriacarpanese.com</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Production and trade of leathers for: Footwear, Leather goods, Furnishings and Leather lining (for Footwear and for Leather goods).</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : White 
+Cattles : White 
+Cattles : White 
+Cattles : White 
+Cattles : Metal free 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BROTINI MARIO &amp; C. SNC DI CAPONI PIERO &amp; C.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>VIA DELLE CONFINA, 3-5-7 - CASTELFRANCO DI SOTTO</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>www.conceriabrotini.it</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Aniline tanned calfskins, baby calf skins, calfsides for footwear and leather goods</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BRUNA MARQUES, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Rua de Revinhade, 330 - Felgueiras</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>www.marqsol.com</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Soles</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BTL STEEL SRL</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Via Trani, 172 - Barletta</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MANUFACTURER OF TOE CAPS AND MIDSOLES FOR SAFETY SHOES</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plates : Footwear 
+Toe puffs : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BUIATTI SRL</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Via Spilimbergo, 183 - Martignacco</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>www.buiatti.com</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Production of bottoms for footwear with CNC milling machine in: Plexi, Cork, Microporous, Wood - Molding of PP, TR ligt, Eva and TPU and TR soles.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear 
+Heels : Footwear 
+Shoe trees : Footwear 
+Wedges : Footwear 
+Cork : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BY MORA SRL</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Via Narcisi, 10 - Palosco</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>www.bymora.it</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sale of high-end buckles and metal accessories</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buckles : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>C3 GROUP SRL</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CONTRADA CAMPIGLIONE, 20 - FERMO</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Welts and extruded profiles and processing for footwear, leathergoods and clothing</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Welts Leather : Footwear 
+Welts Leather : Leathergoods 
+Welts Leather : Garment 
+Welts Synthetic materials : Footwear 
+Welts Synthetic materials : Leathergoods 
+Welts Synthetic materials : Garment 
+Welts Rubber : Footwear 
+Welts Rubber : Leathergoods 
+Welts Rubber : Garment 
+Welts Other materials : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>CABES GIE</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ave Lamine Gueye, Sandogo 17 BP 270 Ouaga 17 - Ouagadougou</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>cabes.bf</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>CABES is a network of over 2400 artisans, mostly women, specialized in the transformation of organic GOTS certified cotton to the quintessential Burkinabé textile FasoDanFani</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>CAFISSI SPA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>VIA DELLA FATTORIA, 4 - TAVOLA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>www.cafissi.it</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Linings, wool and synthetic furs for the production of boots and shoes for man, woman and child, fashion textiles for uppers.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Footwear 
+Synthetic furs : Garment 
+Synthetic furs : Leathergoods Bags 
+Synthetic furs : Children's footwear 
+Synthetic furs : Women's shoes 
+Woven non woven : Footwear Lining 
+Fabrics : *Upholstery 
+Fabrics : Safety footwear 
+Fabrics : Sport footwear 
+Fabrics : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>CALISGANLAR DERI</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>DERİ İHTİSAS ORGANİZE SANAYİ BÖLGESİ 6 NO'LU SOKAK NO: 4/4 - Gerede</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>www.calisganlarderi.com.tr</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Finished Leather for shoes, bags and leather goods</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Others 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CAMALEONTE SPA CONCERIA PELLAMI</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>VIA DEI CONCIATORI, 10-12-14 - S. CROCE S/A</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Top quality of European calf, sides and full calf, full grain and embossed. Metal Free, Chriome Free, Chrome and white tannage, best finishing for handbags, shoes, belt, garment and furniture</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Chrome 
+Calves : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Chrome 
+Calf sides : Mixed 
+Calf sides : Mixed 
+Calf sides : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>CAMERA ARBITRALE NAZIONALE ED INTERNAZIONALE PER IL COMMERCIO DELLE PELLI</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Via Brisa, 3 - Milano</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>arbitratopelli.org</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>The Milan Chamber of Arbitration is the only Association specialized in the resolution of domestic and cross-border disputes concerning the trading of hides, skins, leather.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>C AND E LIMITED</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2ND FLOOR ANKUR MANOR 182/271 POONAMALLEE HIGH ROAD KILPAUK - CHENNAI</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>www.cel.co.in</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>FOOTWEAR COMPONENTS &amp; SOLES</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles Thermoplastic : Footwear Sole 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>CAPE KAROO INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Koöperasie Street - OUDTSHOORN</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>www.capekarooint.com</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Full aniline ostrich leather</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>CARASCO SPA</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Via Martin Luther King, 35-37 - San Miniato</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>www.carasco.eu</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Patent, Brushed, Nappa, Sneaker's waterproof leathers chrome and mixed tanned for any shoes and leather goods</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CARAVEL PELLI PREGIATE SPA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>VIA DEI CAMPI ALTI, 3/5/9 - CASTELFRANCO DI SOTTO</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>www.caravelspa.com</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Genuine reptile leather</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reptiles : Mixed 
+Reptiles : Mixed 
+Reptiles : Mixed 
+Reptiles : Mixed 
+Reptiles : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CARBIPEL GROUP SRL UNIPERSONALE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>VIA ROVERI, 2 - ZERMEGHEDO</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>www.carbipel.com</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>LWG. Production of cow hides with hair, pony effect, splits. Upholstery, interior design, leathergoods, shoes, belts... Specialized: printed, laser, animals, laminates, fantasy, fashion trends. Made_in_Italy</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+Splits : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>CARISMA SPA</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>VIA CONSOLAZIONE-LOCALITA' FONDO GALDO - SOLOFRA</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>www.carismaleather.com</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Leathers for garments, leather goods, bags and shoes</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Mixed 
+Calves : Mixed 
+Calves : Mixed 
+Calves : Mixed 
+Buffaloes : Mixed 
+Buffaloes : Mixed 
+Goats / kids : Mixed 
+Goats / kids : Mixed 
+Lambs : Mixed 
+Lambs : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>CARLAB SRL</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>VIA DELL'ECONOMIA, 4 - MONTORSO VICENTINO</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>www.carlabweb.com</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>PRODUCTION OF COW SUEDE WITH APPLICATIONS AND EFFECTS. R&amp;D RELATED TO THE LATEST FASHION TRENDS IN THE FIELD OF SHOES, LEATHERGOODS, FURNITURE AND GARMENT.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattle sides : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>CARLO D'ANGELO SRL</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>VIA CIARROCCHI, 50 - ZONA IND. B - CIVITANOVA MARCHE</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>www.carlodangelo.it</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Manufacturing of cast and mechanical moulds for footwear industry producing soles in PU, PVC, TR, EVA, RUBBER etc.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>CHIASA SL</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pol. Ind. Berenguer, Carrer Caseta d'en Camp, 2-26 - CABRIANES</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>www.chiasa.es</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Reinforcement tape manufacturers</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> :  
+ :  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CARRIAT REMY TANNERIES SA</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>225 ROUTE D'ITXASSOU - B.P. 1 - ESPELETTE</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>www.carriat.com</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Bull calf and buffalo calf leather for furniture, shoes, saddlery, handbags and leather goods</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veals : Chrome 
+Veals : Chrome 
+Buffaloes : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>CARTIGLIANO DE MEXICO S.A. DE C.V.</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>BLVD. TIMOTEO PTE. PARQUE INDUSTRIAL PAMPLONA - LEON</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>www.cartigliano.com</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Tannery</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Mixed 
+Cattles : White 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>CASADACQUA PELLI PREGIATE - MINERVAHUB SPA</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>VIA LOMBARDIA, 4 - SANTA CROCE SULL'ARNO</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>www.zumapellipregiate.com</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Production and trade of precious and exotic leather</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>CASTELL ARTICULOS PARA CALZADO Y CINTURONES SL</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>JOSE GOMEZ MONPEAN, 74 - ELCHE (ALICANTE)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>www.castell.es</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Braids, welts, bands and other articles in leather, synthetic and textile materials for footwear, belts, handbags and bracelets.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strips : Leathergoods 
+Chains : Leathergoods 
+Welts : Footwear 
+Decorations : Footwear Upper 
+Interlaced : Leathergoods Belts 
+Interlaced : Footwear 
+Laces : Footwear Upper 
+Laces : Leathergoods 
+Handles : Leathergoods Bags 
+Mignons : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>CASTER SA</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ELCHE PARQUE EMPRESARIAL - C/MANUEL DE FALLA, 4 - ELCHE (ALICANTE)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>www.caster.es</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Rubber sheets for soles: painted rubber sheets, microporous rubber, EVA, crepe rubber</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheets Rubber : Footwear Sole 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>CASTEX FASHION SL</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>POLIG. IND. MARJAL II C/PONENT, 29 APARTADO DE CORREOS 236 - ONIL</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>www.castex.es</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Fabrics for every kind of footwear</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabrics : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>CAUCHOS ARNEDO SA</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>POLIGONO DE RENOCAL, S/N - ARNEDO (LA RIOJA)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>www.cauchosarnedo.es</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Multicolour rubber soles for men, women and children. PU soles and Rubber-PU</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bottoms Rubber : Footwear Sole 
+Soles : Safety footwear 
+Soles : Footwear 
+Soles Rubber : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>C. &amp; C. DI CAMPIGLI REMO D.I.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Via G. Mazzini, 13 - FUCECCHIO</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>www.cec-italy.it</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Leather agents</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Mixed 
+Cattles : White 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>C.D.C. SRL</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>VIA F.LLI CERVI, 80 - CAPALLE - CAMPI BISENZIO</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>www.cdcluxury.com</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Manufacturing of brass and steel chains, metal trimmings for garments, leather goods and shoes - personalised working. Metal meshes</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chains : Footwear 
+Chains : Leathergoods 
+Chains : *Upholstery 
+Chains : Garment 
+Trinkets Metallic : Footwear 
+Trinkets Metallic : Leathergoods 
+Trinkets Metallic : Garment 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>CELLINI SRL</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>VIA V. BREDA, 3B - CIVITANOVA MARCHE</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>www.cellinistampi.com</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>PRODUCTION OF ALUMINIUM MOULDS FOR SOLES IN TR, PVC, GOMMA, TPU, PU, FULLPASTIC.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soles : Footwear Sole 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>CENTRO ACCESSORI SPA SOCIETÀ BENEFIT</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>VIA MACERATA - MONTE S. GIUSTO</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>www.centroaccessori.eu</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Wholesaler of shoes products and components. Research and design of fabrics, buckles, fashionable articles. Shoe laces and fastener systems</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittings : Garment 
+Fittings : Footwear 
+Fittings : Leathergoods 
+Rings : Footwear 
+Rings : Leathergoods 
+Edges : Leathergoods 
+Edges : Footwear 
+Shoe-horn : Footwear 
+Shanks : Footwear 
+Chains : Leathergoods 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>CENTRO INCISIONI DI G. TRANCONE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>4.a TRAVERSA FERDINANDO RUSSO, 10 - CASORIA</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>www.centroincisioni.it/com</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Moulds and steel casterknives for leather goods, footwear, tannery. Buckles and metallic trimmings for leather goods and footwear. General engravings</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Socket punches : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CERTALDESE SPA</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Via Delle Città, 27 - CERTALDO</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>www.certaldese.it</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Fashion leather accessories for clothes and shoes</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interlaced Leather : Leathergoods Belts 
+Interlaced Leather : Leathergoods Bags 
+Interlaced Leather : Footwear Upper 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>CEVAHIR DERI</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Organize Deri Sanayi Bolgesi V-3 Parsel Tuzla - ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>www.cevahirderi.com</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Leathers for shoes, boots, bags, saddlery, garments and upholstery, Waterproof, Crust, Wet-Blue, finished articles, nappa, antique, burnish, flother, patent, nubuck, crazyhorse, s2, s3, lining.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+Cattle sides : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>C.F.M. SRL</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>VIA G. GASPAROLI, 176 - CASSANO MAGNAGO</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>www.cfmsrl.com</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Film for leather, textile and aluminium</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transfer foils/film : Garment 
+Transfer foils/film : Leathergoods 
+Transfer foils/film : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CHANGYI YUHUA TEXTILE MATERIALS CO., LTD</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>North Changlong Road Binhai Development Zone - CHANGYI CITY, SHANDONG PROV</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Microfiber, coated microfiber lining with special finishing, microfiber for safety shoes</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microfibers : Gloves 
+Microfibers : Garment 
+Microfibers : Leathergoods 
+Microfibers : Safety footwear 
+Microfibers : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>CHATZICHRISTOS ALEXANDROS AND CO LP</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>FILIKON 58 - ATHENS / PERISTERI</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>www.acceshoeries.gr</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Buckles, stones, chains, raw materials, stone buckles</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buckles : Women's shoes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CHENG HOON HARDWARE CO., LTD</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>N.23, Riverside East Road, Maosheng Village - ,Zhongshan City, Guangdong Province</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>www.FC-hardware.com</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Manufacture of professional hardware for belts, bags, shoes and others. Main products are: Buckle, Dog-leash, Snap hook, Lock, D-ring, Name plate and so on</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rings : Leathergoods 
+Buckles : Footwear 
+Buckles : Garment 
+Locks : Leathergoods Bags 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>CHENNAI TAPES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>62,Jermiah Road, Vepery - CHENNAI</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>www.elasticindia.net</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Four Units working round the clock. Collaborated with overseas experts for technology and Technicians.Each unit has an average of 25 workers.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elastics : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CONCERIA 800 SPA</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>VIA DEL FONTINO, 6/8 - S. CROCE SULL'ARNO</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>www.conceria800.it</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Vegetable tanned, pit tanned skins for footwear, leather goods and clothing.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Vegetable 
+Cattles : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CHIORINO TECHNOLOGY SPA</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>VIA PADRE GREGGIO, 12 - BIELLA</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>www.chiorinotechnology.com</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Butt splits, full grain calf, finished. Technology is registered with patent</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Cattles : Chrome 
+Calves : Chrome 
+Calves : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CHONGQING DOUBLE ELEPHANT MICRO FIBRE MATERIAL CO., LTD</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>No.6, Huabei four road, Yanjia Street, Changshou District - Chongqing</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Produce micro fiber materials and PU</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microfibers : Footwear 
+Microfibers : Footwear Upper 
+Microfibers : Footwear Lining 
+Microfibers : Footwear Sole 
+Microfibers : Children's footwear 
+Microfibers : Safety footwear 
+Microfibers : Leathergoods 
+Microfibers : Leathergoods Bags 
+Microfibers : Leathergoods Luggage 
+Microfibers : *Upholstery 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CIAC SRL</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>VIA G. DI VITTORIO, 18 - PIEVE EMANUELE</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>www.ciac-srl.com</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Leather accessories, shoehorns, laces, insoles, creams, brushes, shoe shop accessories, rivets, eyelets, buttons, shoemaker tools and machines, small parts, private label accessories, rubber soles, heels and sheets</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heel cushions : Footwear 
+Buttons : Footwear 
+Buttons : Leathergoods 
+Shoe-horn : Footwear 
+Shanks : Footwear 
+Zip fasteners : Leathergoods 
+Nails : Footwear 
+Nails : Leathergoods 
+Buckles : Leathergoods 
+Lasts : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CIHAN DERI SANAYI AS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ISTANBUL DERI ORGANIZE SAN. BÖL. 3 YOL H/19 PARSEL - TUZLA-ISTANBUL</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>www.cihanderi.com</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Leathers for shoes, bags, wallets, garments, belts, sandals</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+Cattles : Mixed 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CILP CONCERIA SNC DI POGGETTI RICCARDO E DAVIDE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>VIA DEL MELACCIO, 21 - S. CROCE S/ARNO</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>www.cilp.it</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Metal Free and Chrome Free calfskin and half calfskin for leather goods and footwear</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calves : Metal free 
+Calves : Metal free 
+Calves : Metal free 
+Calves : Metal free 
+Calves : Metal free 
+Calves : Metal free 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CIM ITALY SRL</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>VIA CAVALIERI DI VITTORIO VENETO, 2 - CERNUSCO LOMBARDONE</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>www.cim-italy.com</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Application and sale of studs, hot-fix studs and rhinestones. Eyelets, abs studs, pearls and fashion accessoires for garments, leather goods and shoes,metal meshes</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinkets : Garment 
+Trinkets Metallic : Leathergoods 
+Trinkets Plastic : Leathergoods 
+Eyelets : Garment 
+Eyelets : Leathergoods 
+Trimmings : Footwear 
+Trimmings : Garment 
+Loops : Footwear 
+Rivets : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CITTADINI SPA</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>VIA TRENTO, 35/45 - PADERNO F.C.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>www.cittadini.it</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Twisted and bonded polyester and nylon sewing threads; High tenacity yarns for ribbons. Hand made and machine sewing braids. Dyed, printed Fashion nets. Cords, laces</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yarns and sewing threads : Bookbinding 
+Yarns and sewing threads : Footwear Upper 
+Yarns and sewing threads : Footwear Lining 
+Yarns and sewing threads : Footwear Sole 
+Yarns and sewing threads : Women's shoes 
+Yarns and sewing threads : Women's shoes Classical 
+Yarns and sewing threads : Women's shoes Sports 
+Yarns and sewing threads : Women's shoes Free Time 
+Yarns and sewing threads : Men's footwear 
+Yarns and sewing threads : Men's footwear Classical 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>CLIC SRL</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>VIA DEL LAVORO, 2 - CASTEL GUELFO</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>www.clicsrl.com</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Project and production of metal fittings for leather goods, shoes and apparel industries</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rings : Garment 
+Rings : Leathergoods 
+Chains : Garment 
+Chains : Leathergoods 
+Zip fasteners : Leathergoods 
+Buckles : Leathergoods Belts 
+Buckles : Leathergoods 
+Buckles : Garment 
+Seat lifts : Leathergoods 
+Seat lifts : Garment 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CLUXTER SRL SOCIETA' BENEFIT</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Via Charta 77, 15 - Scandicci</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>cluxter.it</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Leather goods and footwear product development consultancy. Sustainability consultancy. Sourcing. Development of leathers, fabrics, components and packaging for different brands</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>C.M.C. GRUPPO CONCIARIO INTERNATIONAL SPA</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>VIA DEI CONCIATORI, 52/64B - PONTE A EGOLA</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>www.cmcspa.com</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Vegetable tanned leather bends (butts), in vats with slow procedure, mm. 3.0/3.5 to 5.5/6.0 for soles, welts, heel, drum dyed, waterproof, finished</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+Cattles : Vegetable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>COBA</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>VIA VECCHIA PORTO, 3136 - SANT'ELPIDIO A MARE</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>www.solettificiocoba.com</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Production of women's and men's shoe insoles and fussbett</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insoles : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>COLOMER 1792 SL</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Polígon industrial La Torroella, C/Fusters 20 - Les Masies del Voltregà</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>www.colomer.com</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Finished lamb and baby calf leather: napa, suede, and double face articles for garment, footwear, leather goods and gloves.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calf sides : Chrome 
+Veals : Chrome 
+Veals : Chrome 
+Lambs : Chrome 
+Wool sheep : Chrome 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>COLOR-DEC FASHION DIVISION AT+T</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>VIA DEI METALMECCANICI, 41 - CAPEZZANO PIANORE</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>www.advancedtransfers.com</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Import and export of raw and semifinished materials and of accessories. Transformation of different materials, plastic, synthetics, textiles</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synthetic furs : Footwear 
+Flocked fabrics : Footwear 
+Fabrics : Footwear 
+PVC coated fabrics : Footwear 
+PU coated fabrics : Footwear 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>COLORTEX GMBH</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BLOCKSBERGSTRASSE, 157 - PIRMASENS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>www.colortex.de</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Fashionable &amp; technical textiles; Innovative materials for work safety &amp; orthopedic; upper &amp; lining materials; digital prints &amp; special treatments; 3D Printing;</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined fabrics : Footwear 
+Woven non woven : Leathergoods Bags 
+Fabrics : Footwear Lining 
+Fabrics : Footwear Upper 
+PU coated fabrics : Footwear 
+Printed fabrics : Footwear Lining 
+Printed fabrics : Leathergoods 
+Printed fabrics : Children's footwear 
+Printed fabrics : Footwear 
+Fabrics with special treatments : Footwear Upper 
 </t>
         </is>
       </c>
